--- a/Efficiency/FinalEfficiencies.xlsx
+++ b/Efficiency/FinalEfficiencies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master\Skripte\Auswertung\Efficiency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C78AED-DFD4-43DD-AA57-D1551E13870F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2C1BD-BFF0-4072-B3B1-E6F3257B7B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{317F56B8-D4C9-45A5-9816-0A494658102D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Coordinates</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>0°</t>
   </si>
 </sst>
 </file>
@@ -81,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,283 +403,656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D10DEB-B067-4133-A03C-007345956416}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1.4</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>2.6</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1.4</v>
+      </c>
+      <c r="V2">
+        <v>2.6</v>
+      </c>
+      <c r="W2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>99.69</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>99.9</v>
       </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
+        <v>100</v>
+      </c>
+      <c r="W4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>160</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>160</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>99.61</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>99.84</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>99.93</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>160</v>
+      </c>
+      <c r="Q5">
+        <v>160</v>
+      </c>
+      <c r="U5">
+        <v>99.61</v>
+      </c>
+      <c r="V5">
+        <v>99.91</v>
+      </c>
+      <c r="W5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-320</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>320</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>98.48</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>99.22</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>99.64</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>320</v>
+      </c>
+      <c r="Q6">
+        <v>320</v>
+      </c>
+      <c r="U6">
+        <v>90.55</v>
+      </c>
+      <c r="V6">
+        <v>95.29</v>
+      </c>
+      <c r="W6">
+        <v>97.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-160</v>
-      </c>
-      <c r="C6">
-        <v>160</v>
-      </c>
-      <c r="D6">
-        <v>99.27</v>
-      </c>
-      <c r="E6">
-        <v>99.74</v>
-      </c>
-      <c r="F6">
-        <v>99.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
       </c>
       <c r="B7">
         <v>-160</v>
       </c>
       <c r="C7">
+        <v>160</v>
+      </c>
+      <c r="D7">
+        <v>99.27</v>
+      </c>
+      <c r="E7">
+        <v>99.74</v>
+      </c>
+      <c r="F7">
+        <v>99.85</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>-320</v>
+      </c>
+      <c r="Q7">
+        <v>320</v>
+      </c>
+      <c r="U7">
+        <v>99.11</v>
+      </c>
+      <c r="V7">
+        <v>99.5</v>
+      </c>
+      <c r="W7">
+        <v>99.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>-160</v>
       </c>
-      <c r="D7">
+      <c r="C8">
+        <v>-160</v>
+      </c>
+      <c r="D8">
         <v>99.72</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>99.91</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>99.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>-160</v>
+      </c>
+      <c r="Q8">
+        <v>160</v>
+      </c>
+      <c r="U8">
+        <v>99.6</v>
+      </c>
+      <c r="V8">
+        <v>99.78</v>
+      </c>
+      <c r="W8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>-320</v>
-      </c>
-      <c r="C8">
-        <v>-320</v>
-      </c>
-      <c r="D8">
-        <v>99.66</v>
-      </c>
-      <c r="E8">
-        <v>99.81</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>320</v>
       </c>
       <c r="C9">
         <v>-320</v>
       </c>
       <c r="D9">
+        <v>99.66</v>
+      </c>
+      <c r="E9">
+        <v>99.81</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>-160</v>
+      </c>
+      <c r="Q9">
+        <v>-160</v>
+      </c>
+      <c r="U9">
+        <v>99.99</v>
+      </c>
+      <c r="V9">
+        <v>100</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>320</v>
+      </c>
+      <c r="C10">
+        <v>-320</v>
+      </c>
+      <c r="D10">
         <v>99.85</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>99.97</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>99.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>-320</v>
+      </c>
+      <c r="Q10">
+        <v>-320</v>
+      </c>
+      <c r="U10">
+        <v>100</v>
+      </c>
+      <c r="V10">
+        <v>100</v>
+      </c>
+      <c r="W10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>8</v>
-      </c>
-      <c r="B10">
-        <v>160</v>
-      </c>
-      <c r="C10">
-        <v>-160</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>99.94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
       </c>
       <c r="B11">
         <v>160</v>
       </c>
       <c r="C11">
+        <v>-160</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>99.94</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>320</v>
+      </c>
+      <c r="Q11">
+        <v>-320</v>
+      </c>
+      <c r="U11">
+        <v>99.98</v>
+      </c>
+      <c r="V11">
+        <v>100</v>
+      </c>
+      <c r="W11">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>160</v>
+      </c>
+      <c r="C12">
         <v>-510</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>99.94</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>99.96</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>99.99</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>160</v>
+      </c>
+      <c r="Q12">
+        <v>-510</v>
+      </c>
+      <c r="U12">
+        <v>99.94</v>
+      </c>
+      <c r="V12">
+        <v>99.96</v>
+      </c>
+      <c r="W12">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>204</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-404</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>99.84</v>
-      </c>
-      <c r="E12">
-        <v>99.94</v>
-      </c>
-      <c r="F12">
-        <v>99.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>310</v>
-      </c>
-      <c r="C13">
-        <v>-360</v>
-      </c>
-      <c r="D13">
-        <v>99.89</v>
       </c>
       <c r="E13">
         <v>99.94</v>
       </c>
       <c r="F13">
+        <v>99.97</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>204</v>
+      </c>
+      <c r="Q13">
+        <v>-404</v>
+      </c>
+      <c r="U13">
+        <v>99.84</v>
+      </c>
+      <c r="V13">
+        <v>99.94</v>
+      </c>
+      <c r="W13">
+        <v>99.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>310</v>
+      </c>
+      <c r="C14">
+        <v>-360</v>
+      </c>
+      <c r="D14">
+        <v>99.89</v>
+      </c>
+      <c r="E14">
+        <v>99.94</v>
+      </c>
+      <c r="F14">
         <v>99.98</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>310</v>
+      </c>
+      <c r="Q14">
+        <v>-360</v>
+      </c>
+      <c r="U14">
+        <v>99.89</v>
+      </c>
+      <c r="V14">
+        <v>99.94</v>
+      </c>
+      <c r="W14">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>-320</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>99.66</v>
+      </c>
+      <c r="V15">
+        <v>99.97</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
         <v>320</v>
       </c>
-      <c r="C14">
-        <v>320</v>
-      </c>
-      <c r="D14">
-        <v>99.27</v>
-      </c>
-      <c r="E14">
-        <v>99.74</v>
-      </c>
-      <c r="F14">
-        <v>99.85</v>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>98.98</v>
+      </c>
+      <c r="V16">
+        <v>99.61</v>
+      </c>
+      <c r="W16">
+        <v>99.89</v>
+      </c>
+    </row>
+    <row r="17" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>14</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>407</v>
+      </c>
+      <c r="U17">
+        <v>99.07</v>
+      </c>
+      <c r="V17">
+        <v>99.54</v>
+      </c>
+      <c r="W17">
+        <v>99.82</v>
+      </c>
+    </row>
+    <row r="18" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>-407</v>
+      </c>
+      <c r="U18">
+        <v>99.89</v>
+      </c>
+      <c r="V18">
+        <v>99.98</v>
+      </c>
+      <c r="W18">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="19" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>-160</v>
+      </c>
+      <c r="U19">
+        <v>100</v>
+      </c>
+      <c r="V19">
+        <v>100</v>
+      </c>
+      <c r="W19">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="20" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>17</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>160</v>
+      </c>
+      <c r="U20">
+        <v>99.66</v>
+      </c>
+      <c r="V20">
+        <v>99.98</v>
+      </c>
+      <c r="W20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <v>-160</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>99.99</v>
+      </c>
+      <c r="V21">
+        <v>100</v>
+      </c>
+      <c r="W21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <v>160</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>100</v>
+      </c>
+      <c r="V22">
+        <v>100</v>
+      </c>
+      <c r="W22">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Efficiency/FinalEfficiencies.xlsx
+++ b/Efficiency/FinalEfficiencies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master\Skripte\Auswertung\Efficiency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E665B898-1CC0-4CC8-B037-20BC2E96A173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A42125D-0671-4792-BE19-18D6CC1F6BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{317F56B8-D4C9-45A5-9816-0A494658102D}"/>
   </bookViews>
@@ -16,16 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -442,7 +435,7 @@
   <dimension ref="A1:AJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,6 +1478,18 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <f>AVERAGE(D4:D14)</f>
+        <v>99.628563636363637</v>
+      </c>
+      <c r="G18" s="1">
+        <f>AVERAGE(G4:G14)</f>
+        <v>99.841072727272731</v>
+      </c>
+      <c r="J18" s="1">
+        <f>AVERAGE(J4:J14)</f>
+        <v>99.936436363636361</v>
+      </c>
       <c r="T18">
         <v>18</v>
       </c>
@@ -1525,6 +1530,18 @@
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>_xlfn.STDEV.P(D4:D14)/SQRT(COUNT(D4:D14))</f>
+        <v>0.13837961756514408</v>
+      </c>
+      <c r="G19">
+        <f>_xlfn.STDEV.P(G4:G14)/SQRT(COUNT(G4:G14))</f>
+        <v>6.5003632563351996E-2</v>
+      </c>
+      <c r="J19">
+        <f>_xlfn.STDEV.P(J4:J14)/SQRT(COUNT(J4:J14))</f>
+        <v>2.3757463456192056E-2</v>
+      </c>
       <c r="T19">
         <v>19</v>
       </c>
@@ -1562,6 +1579,26 @@
       </c>
       <c r="AJ19">
         <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <f>G18-D18</f>
+        <v>0.21250909090909431</v>
+      </c>
+      <c r="J21" s="1">
+        <f>J18-D18</f>
+        <v>0.30787272727272352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f>SQRT(D19^2+G19^2)</f>
+        <v>0.1528868562169646</v>
+      </c>
+      <c r="J22">
+        <f>SQRT(D19^2+J19^2)</f>
+        <v>0.14040418664465754</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
@@ -1571,12 +1608,126 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>320</v>
+      </c>
+      <c r="V26">
+        <v>320</v>
+      </c>
+      <c r="X26">
+        <v>92.747299999999996</v>
+      </c>
+      <c r="Y26">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="Z26">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AA26" s="2"/>
+      <c r="AC26">
+        <v>90.929100000000005</v>
+      </c>
+      <c r="AD26">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="AE26">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="AF26" s="2"/>
+      <c r="AH26">
+        <v>98.161799999999999</v>
+      </c>
+      <c r="AI26">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="AJ26">
+        <v>0.19409999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>320</v>
+      </c>
+      <c r="V27">
+        <v>-320</v>
+      </c>
+      <c r="X27">
+        <v>100</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="AA27" s="2"/>
+      <c r="AC27">
+        <v>100</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1.84E-2</v>
+      </c>
+      <c r="AF27" s="2"/>
+      <c r="AH27">
+        <v>99.98</v>
+      </c>
+      <c r="AI27">
+        <v>1.29E-2</v>
+      </c>
+      <c r="AJ27">
+        <v>2.63E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
+      <c r="T28">
+        <v>13</v>
+      </c>
+      <c r="U28">
+        <v>320</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>99.110900000000001</v>
+      </c>
+      <c r="Y28">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="Z28">
+        <v>0.1045</v>
+      </c>
+      <c r="AA28" s="2"/>
+      <c r="AC28">
+        <v>99.660300000000007</v>
+      </c>
+      <c r="AD28">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AE28">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="AF28" s="2"/>
+      <c r="AH28">
+        <v>99.920100000000005</v>
+      </c>
+      <c r="AI28">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="AJ28">
+        <v>4.0599999999999997E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1586,6 +1737,18 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
+      <c r="X31">
+        <f>AVERAGE(X26:X28)</f>
+        <v>97.28606666666667</v>
+      </c>
+      <c r="AC31">
+        <f>AVERAGE(AC26:AC28)</f>
+        <v>96.863133333333337</v>
+      </c>
+      <c r="AH31">
+        <f>AVERAGE(AH26:AH28)</f>
+        <v>99.353966666666665</v>
+      </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>

--- a/Efficiency/FinalEfficiencies.xlsx
+++ b/Efficiency/FinalEfficiencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master\Skripte\Auswertung\Efficiency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A42125D-0671-4792-BE19-18D6CC1F6BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E12A988-6DAC-4972-985A-9ADED2E5CE09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{317F56B8-D4C9-45A5-9816-0A494658102D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="18">
   <si>
     <t>Coordinates</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>z3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <dimension ref="A1:AJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +561,8 @@
       <c r="L4" s="1">
         <v>2.63E-2</v>
       </c>
+      <c r="N4" s="1"/>
+      <c r="P4" s="2"/>
       <c r="T4">
         <v>0</v>
       </c>
@@ -634,6 +639,8 @@
       <c r="L5" s="1">
         <v>3.7600000000000001E-2</v>
       </c>
+      <c r="M5" s="1"/>
+      <c r="O5" s="2"/>
       <c r="T5">
         <v>1</v>
       </c>
@@ -710,6 +717,7 @@
       <c r="L6" s="1">
         <v>6.4199999999999993E-2</v>
       </c>
+      <c r="N6" s="1"/>
       <c r="T6">
         <v>2</v>
       </c>
@@ -786,6 +794,8 @@
       <c r="L7" s="1">
         <v>4.9500000000000002E-2</v>
       </c>
+      <c r="N7" s="1"/>
+      <c r="P7" s="2"/>
       <c r="T7">
         <v>3</v>
       </c>
@@ -862,6 +872,8 @@
       <c r="L8" s="1">
         <v>1.84E-2</v>
       </c>
+      <c r="N8" s="1"/>
+      <c r="P8" s="2"/>
       <c r="T8">
         <v>4</v>
       </c>
@@ -938,6 +950,8 @@
       <c r="L9" s="1">
         <v>3.5200000000000002E-2</v>
       </c>
+      <c r="N9" s="1"/>
+      <c r="P9" s="2"/>
       <c r="T9">
         <v>5</v>
       </c>
@@ -1014,6 +1028,8 @@
       <c r="L10" s="1">
         <v>2.63E-2</v>
       </c>
+      <c r="N10" s="1"/>
+      <c r="P10" s="2"/>
       <c r="T10">
         <v>6</v>
       </c>
@@ -1090,6 +1106,8 @@
       <c r="L11" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
+      <c r="M11" s="1"/>
+      <c r="O11" s="2"/>
       <c r="T11">
         <v>7</v>
       </c>
@@ -1166,6 +1184,8 @@
       <c r="L12" s="1">
         <v>2.3E-2</v>
       </c>
+      <c r="N12" s="1"/>
+      <c r="Q12" s="2"/>
       <c r="T12">
         <v>12</v>
       </c>
@@ -1242,6 +1262,8 @@
       <c r="L13" s="1">
         <v>2.9100000000000001E-2</v>
       </c>
+      <c r="N13" s="1"/>
+      <c r="Q13" s="2"/>
       <c r="T13">
         <v>13</v>
       </c>
@@ -1318,6 +1340,10 @@
       <c r="L14" s="1">
         <v>2.63E-2</v>
       </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="T14">
         <v>14</v>
       </c>
@@ -1731,6 +1757,12 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="T29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
